--- a/TransactionDeets.xlsx
+++ b/TransactionDeets.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjjj8\OneDrive\Documents\GitHub\PortfolioProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149642D7-838D-4FA3-BE5B-95C9D1BF71BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="5556" yWindow="756" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -67,8 +73,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,38 +119,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -153,10 +170,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -194,71 +211,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,7 +303,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -309,11 +326,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -322,13 +339,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -338,7 +355,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -347,7 +364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,7 +373,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -364,10 +381,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -432,27 +449,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,14 +489,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -504,7 +522,7 @@
         <v>2042.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -530,7 +548,7 @@
         <v>814.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -556,7 +574,7 @@
         <v>3300.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -578,11 +596,12 @@
       <c r="G5" s="4">
         <v>188.65</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="9">
+        <f>PRODUCT(F5,G5)</f>
         <v>7546</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -601,12 +620,33 @@
       <c r="F6" s="1">
         <v>9</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>1503</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="9">
+        <f>PRODUCT(F6,G6)</f>
         <v>13527</v>
       </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TransactionDeets.xlsx
+++ b/TransactionDeets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjjj8\OneDrive\Documents\GitHub\PortfolioProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149642D7-838D-4FA3-BE5B-95C9D1BF71BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B10922-3CFC-4ABC-BF34-AC76F13B6CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5556" yWindow="756" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>WAAREEENER.NS</t>
+  </si>
+  <si>
+    <t>HUDCO</t>
+  </si>
+  <si>
+    <t>HUDCO.NS</t>
   </si>
 </sst>
 </file>
@@ -75,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -456,7 +462,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,8 +635,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45601</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9">
+        <v>214.5</v>
+      </c>
+      <c r="H7" s="9">
+        <f>PRODUCT(F7,G7)</f>
+        <v>10725</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="9"/>

--- a/TransactionDeets.xlsx
+++ b/TransactionDeets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjjj8\OneDrive\Documents\GitHub\PortfolioProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B10922-3CFC-4ABC-BF34-AC76F13B6CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F203B-5512-4F87-9EFB-0846D51BCCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5556" yWindow="756" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,8 +662,31 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45607</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2930</v>
+      </c>
+      <c r="H8" s="9">
+        <f>PRODUCT(F8,G8)</f>
+        <v>14650</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>

--- a/TransactionDeets.xlsx
+++ b/TransactionDeets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjjj8\OneDrive\Documents\GitHub\PortfolioProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F203B-5512-4F87-9EFB-0846D51BCCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5F1C0-CCDB-4D1A-840C-56C70BE3DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>HUDCO.NS</t>
+  </si>
+  <si>
+    <t>NMDC Steel</t>
+  </si>
+  <si>
+    <t>NSLNISP.NS</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,13 +695,58 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45609</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>150</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44.47</v>
+      </c>
+      <c r="H9" s="9">
+        <f>PRODUCT(F9,G9)</f>
+        <v>6670.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45609</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5">
+        <v>206</v>
+      </c>
+      <c r="H10" s="9">
+        <f>PRODUCT(F10,G10)</f>
+        <v>4120</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H12" s="8"/>
